--- a/KW29 Bestellung KW30 Lieferung Übersicht.xlsx
+++ b/KW29 Bestellung KW30 Lieferung Übersicht.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="92">
   <si>
     <t>Bestellung Übersicht             KW   29</t>
   </si>
@@ -175,6 +175,9 @@
     <t>02 HS</t>
   </si>
   <si>
+    <t>=</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -293,10 +296,6 @@
   </si>
   <si>
     <t>Nachberechnung</t>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1384,7 +1383,567 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="已停产" xfId="4"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="163">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2002,9 +2561,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="库存清单" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="82"/>
-      <tableStyleElement type="headerRow" dxfId="81"/>
-      <tableStyleElement type="firstColumn" dxfId="80"/>
+      <tableStyleElement type="wholeTable" dxfId="162"/>
+      <tableStyleElement type="headerRow" dxfId="161"/>
+      <tableStyleElement type="firstColumn" dxfId="160"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2248,10 +2807,10 @@
   <dimension ref="A1:IW38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="AX29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="CL19" sqref="CL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3950,7 +4509,7 @@
       <c r="H6" s="54"/>
       <c r="I6" s="47"/>
       <c r="J6" s="22" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K6" s="23" t="s">
         <v>43</v>
@@ -4007,7 +4566,7 @@
       <c r="AK6" s="24"/>
       <c r="AL6" s="23"/>
       <c r="AM6" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AN6" s="54"/>
       <c r="AO6" s="47"/>
@@ -4212,19 +4771,19 @@
       <c r="HP6" s="54"/>
       <c r="HQ6" s="47"/>
       <c r="HR6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HS6" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HT6" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HU6" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HV6" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HW6" s="25" t="s">
         <v>45</v>
@@ -4260,7 +4819,7 @@
     </row>
     <row r="7" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>43</v>
@@ -4273,7 +4832,7 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="49"/>
@@ -4587,7 +5146,7 @@
     </row>
     <row r="8" spans="1:257" s="20" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4894,7 +5453,7 @@
     </row>
     <row r="9" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>43</v>
@@ -4907,7 +5466,7 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="49"/>
@@ -4938,10 +5497,10 @@
         <v>43</v>
       </c>
       <c r="W9" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y9" s="46"/>
       <c r="Z9" s="4" t="s">
@@ -5002,7 +5561,9 @@
       <c r="BC9" s="14"/>
       <c r="BD9" s="49"/>
       <c r="BE9" s="46"/>
-      <c r="BF9" s="4"/>
+      <c r="BF9" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="BG9" s="5"/>
       <c r="BH9" s="6"/>
       <c r="BI9" s="7"/>
@@ -5010,7 +5571,9 @@
       <c r="BK9" s="14"/>
       <c r="BL9" s="49"/>
       <c r="BM9" s="46"/>
-      <c r="BN9" s="4"/>
+      <c r="BN9" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="BO9" s="5"/>
       <c r="BP9" s="6"/>
       <c r="BQ9" s="7"/>
@@ -5211,7 +5774,7 @@
     </row>
     <row r="10" spans="1:257" s="20" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
@@ -5265,7 +5828,7 @@
         <v>46</v>
       </c>
       <c r="AE10" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF10" s="54"/>
       <c r="AG10" s="47"/>
@@ -5281,7 +5844,7 @@
       <c r="AK10" s="24"/>
       <c r="AL10" s="23"/>
       <c r="AM10" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AN10" s="54"/>
       <c r="AO10" s="47"/>
@@ -5526,7 +6089,7 @@
     </row>
     <row r="11" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>43</v>
@@ -5843,7 +6406,7 @@
     </row>
     <row r="12" spans="1:257" s="20" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>43</v>
@@ -5891,10 +6454,10 @@
         <v>43</v>
       </c>
       <c r="W12" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X12" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y12" s="47"/>
       <c r="Z12" s="22" t="s">
@@ -5913,10 +6476,10 @@
         <v>46</v>
       </c>
       <c r="AE12" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF12" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG12" s="47"/>
       <c r="AH12" s="22" t="s">
@@ -6003,7 +6566,9 @@
       </c>
       <c r="CJ12" s="54"/>
       <c r="CK12" s="47"/>
-      <c r="CL12" s="22"/>
+      <c r="CL12" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="CM12" s="23"/>
       <c r="CN12" s="26"/>
       <c r="CO12" s="24"/>
@@ -6142,10 +6707,10 @@
       <c r="HH12" s="54"/>
       <c r="HI12" s="47"/>
       <c r="HJ12" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK12" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL12" s="26"/>
       <c r="HM12" s="24"/>
@@ -6196,7 +6761,7 @@
     </row>
     <row r="13" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>43</v>
@@ -6226,7 +6791,7 @@
         <v>43</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P13" s="49"/>
       <c r="Q13" s="46"/>
@@ -6260,7 +6825,7 @@
         <v>46</v>
       </c>
       <c r="AE13" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF13" s="49"/>
       <c r="AG13" s="46"/>
@@ -6348,11 +6913,13 @@
       <c r="CG13" s="7"/>
       <c r="CH13" s="5"/>
       <c r="CI13" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CJ13" s="49"/>
       <c r="CK13" s="46"/>
-      <c r="CL13" s="4"/>
+      <c r="CL13" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="CM13" s="5"/>
       <c r="CN13" s="6"/>
       <c r="CO13" s="7"/>
@@ -6527,7 +7094,7 @@
     </row>
     <row r="14" spans="1:257" s="20" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>43</v>
@@ -6557,7 +7124,7 @@
         <v>43</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P14" s="54"/>
       <c r="Q14" s="47"/>
@@ -6577,10 +7144,10 @@
         <v>43</v>
       </c>
       <c r="W14" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X14" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y14" s="47"/>
       <c r="Z14" s="22" t="s">
@@ -6777,7 +7344,7 @@
       </c>
       <c r="FH14" s="26"/>
       <c r="FI14" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="FJ14" s="23"/>
       <c r="FK14" s="25"/>
@@ -6800,13 +7367,13 @@
       <c r="GB14" s="54"/>
       <c r="GC14" s="47"/>
       <c r="GD14" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="GE14" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="GF14" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="GG14" s="24"/>
       <c r="GH14" s="23"/>
@@ -6838,10 +7405,10 @@
       <c r="HH14" s="54"/>
       <c r="HI14" s="47"/>
       <c r="HJ14" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK14" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL14" s="26"/>
       <c r="HM14" s="24"/>
@@ -6892,7 +7459,7 @@
     </row>
     <row r="15" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>43</v>
@@ -6940,10 +7507,10 @@
         <v>43</v>
       </c>
       <c r="W15" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X15" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y15" s="46"/>
       <c r="Z15" s="4" t="s">
@@ -7177,10 +7744,10 @@
       <c r="HH15" s="49"/>
       <c r="HI15" s="46"/>
       <c r="HJ15" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK15" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL15" s="6"/>
       <c r="HM15" s="7"/>
@@ -7223,7 +7790,7 @@
     </row>
     <row r="16" spans="1:257" s="20" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>43</v>
@@ -7253,7 +7820,7 @@
         <v>43</v>
       </c>
       <c r="O16" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P16" s="54"/>
       <c r="Q16" s="47"/>
@@ -7273,10 +7840,10 @@
         <v>43</v>
       </c>
       <c r="W16" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y16" s="47"/>
       <c r="Z16" s="22" t="s">
@@ -7307,10 +7874,10 @@
       <c r="AK16" s="24"/>
       <c r="AL16" s="23"/>
       <c r="AM16" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AN16" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO16" s="47"/>
       <c r="AP16" s="22" t="s">
@@ -7518,10 +8085,10 @@
       <c r="HH16" s="54"/>
       <c r="HI16" s="47"/>
       <c r="HJ16" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK16" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL16" s="26"/>
       <c r="HM16" s="24"/>
@@ -7564,7 +8131,7 @@
     </row>
     <row r="17" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>43</v>
@@ -7845,10 +8412,10 @@
       <c r="HH17" s="49"/>
       <c r="HI17" s="46"/>
       <c r="HJ17" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK17" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL17" s="6"/>
       <c r="HM17" s="7"/>
@@ -7857,19 +8424,19 @@
       <c r="HP17" s="49"/>
       <c r="HQ17" s="46"/>
       <c r="HR17" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HS17" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HT17" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HU17" s="7" t="s">
         <v>46</v>
       </c>
       <c r="HV17" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HW17" s="14" t="s">
         <v>45</v>
@@ -7903,7 +8470,7 @@
     </row>
     <row r="18" spans="1:257" s="20" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="68" t="s">
         <v>43</v>
@@ -8182,14 +8749,14 @@
       <c r="HH18" s="51"/>
       <c r="HI18" s="48"/>
       <c r="HJ18" s="68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK18" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL18" s="36"/>
       <c r="HM18" s="37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HN18" s="27"/>
       <c r="HO18" s="25" t="s">
@@ -8232,7 +8799,7 @@
     </row>
     <row r="19" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>43</v>
@@ -8262,7 +8829,7 @@
         <v>43</v>
       </c>
       <c r="O19" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P19" s="49"/>
       <c r="Q19" s="46"/>
@@ -8280,10 +8847,10 @@
         <v>43</v>
       </c>
       <c r="W19" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X19" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y19" s="46"/>
       <c r="Z19" s="4" t="s">
@@ -8507,10 +9074,10 @@
       <c r="HH19" s="49"/>
       <c r="HI19" s="46"/>
       <c r="HJ19" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK19" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL19" s="6"/>
       <c r="HM19" s="7"/>
@@ -8553,7 +9120,7 @@
     </row>
     <row r="20" spans="1:257" s="20" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>43</v>
@@ -8585,7 +9152,7 @@
         <v>43</v>
       </c>
       <c r="O20" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P20" s="54"/>
       <c r="Q20" s="47"/>
@@ -8603,10 +9170,10 @@
         <v>43</v>
       </c>
       <c r="W20" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X20" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y20" s="47"/>
       <c r="Z20" s="22" t="s">
@@ -8623,7 +9190,7 @@
         <v>46</v>
       </c>
       <c r="AE20" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF20" s="54"/>
       <c r="AG20" s="47"/>
@@ -8701,7 +9268,7 @@
         <v>44</v>
       </c>
       <c r="CG20" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="CH20" s="23"/>
       <c r="CI20" s="25" t="s">
@@ -8850,10 +9417,10 @@
       <c r="HH20" s="54"/>
       <c r="HI20" s="47"/>
       <c r="HJ20" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK20" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL20" s="26"/>
       <c r="HM20" s="24"/>
@@ -8900,7 +9467,7 @@
     </row>
     <row r="21" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>43</v>
@@ -8930,7 +9497,7 @@
         <v>43</v>
       </c>
       <c r="O21" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P21" s="49"/>
       <c r="Q21" s="46"/>
@@ -8968,7 +9535,7 @@
         <v>46</v>
       </c>
       <c r="AE21" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF21" s="49"/>
       <c r="AG21" s="46"/>
@@ -9054,7 +9621,7 @@
       </c>
       <c r="CH21" s="5"/>
       <c r="CI21" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CJ21" s="49"/>
       <c r="CK21" s="46"/>
@@ -9152,17 +9719,17 @@
       </c>
       <c r="FH21" s="6"/>
       <c r="FI21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="FJ21" s="5"/>
       <c r="FK21" s="14"/>
       <c r="FL21" s="49"/>
       <c r="FM21" s="46"/>
       <c r="FN21" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="FO21" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="FP21" s="6"/>
       <c r="FQ21" s="7"/>
@@ -9179,19 +9746,19 @@
       <c r="GB21" s="49"/>
       <c r="GC21" s="46"/>
       <c r="GD21" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="GE21" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="GF21" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="GG21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="GH21" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="GI21" s="14"/>
       <c r="GJ21" s="49"/>
@@ -9267,7 +9834,7 @@
     </row>
     <row r="22" spans="1:257" s="20" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>43</v>
@@ -9313,10 +9880,10 @@
         <v>43</v>
       </c>
       <c r="W22" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X22" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y22" s="47"/>
       <c r="Z22" s="22"/>
@@ -9516,14 +10083,14 @@
       <c r="HH22" s="54"/>
       <c r="HI22" s="47"/>
       <c r="HJ22" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK22" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL22" s="26"/>
       <c r="HM22" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HN22" s="23"/>
       <c r="HO22" s="25" t="s">
@@ -9566,7 +10133,7 @@
     </row>
     <row r="23" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>43</v>
@@ -9610,7 +10177,7 @@
         <v>43</v>
       </c>
       <c r="W23" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X23" s="49"/>
       <c r="Y23" s="46"/>
@@ -9628,7 +10195,7 @@
         <v>46</v>
       </c>
       <c r="AE23" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF23" s="49"/>
       <c r="AG23" s="46"/>
@@ -9851,14 +10418,14 @@
       <c r="HH23" s="49"/>
       <c r="HI23" s="46"/>
       <c r="HJ23" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK23" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL23" s="6"/>
       <c r="HM23" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HN23" s="5"/>
       <c r="HO23" s="14" t="s">
@@ -9909,7 +10476,7 @@
     </row>
     <row r="24" spans="1:257" s="20" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="68"/>
       <c r="C24" s="23"/>
@@ -9941,10 +10508,10 @@
         <v>43</v>
       </c>
       <c r="W24" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X24" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y24" s="75"/>
       <c r="Z24" s="68"/>
@@ -11232,7 +11799,7 @@
     </row>
     <row r="27" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="41"/>
@@ -11252,7 +11819,7 @@
         <v>44</v>
       </c>
       <c r="M27" s="43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N27" s="41"/>
       <c r="O27" s="44"/>
@@ -11300,7 +11867,7 @@
         <v>44</v>
       </c>
       <c r="AK27" s="43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL27" s="41" t="s">
         <v>47</v>
@@ -11318,7 +11885,7 @@
         <v>44</v>
       </c>
       <c r="AS27" s="43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AT27" s="41" t="s">
         <v>47</v>
@@ -11384,7 +11951,7 @@
       </c>
       <c r="CN27" s="42"/>
       <c r="CO27" s="43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CP27" s="41"/>
       <c r="CQ27" s="44"/>
@@ -11511,10 +12078,10 @@
       <c r="HH27" s="53"/>
       <c r="HI27" s="45"/>
       <c r="HJ27" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK27" s="41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL27" s="42"/>
       <c r="HM27" s="43"/>
@@ -11557,7 +12124,7 @@
     </row>
     <row r="28" spans="1:257" s="20" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -11577,7 +12144,7 @@
         <v>44</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N28" s="23"/>
       <c r="O28" s="25" t="s">
@@ -11613,13 +12180,13 @@
         <v>44</v>
       </c>
       <c r="AC28" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD28" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE28" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="AD28" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE28" s="25" t="s">
-        <v>51</v>
       </c>
       <c r="AF28" s="54"/>
       <c r="AG28" s="47"/>
@@ -11633,7 +12200,7 @@
         <v>44</v>
       </c>
       <c r="AK28" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL28" s="23" t="s">
         <v>47</v>
@@ -11850,19 +12417,19 @@
       <c r="HP28" s="54"/>
       <c r="HQ28" s="47"/>
       <c r="HR28" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HS28" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HT28" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HU28" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HV28" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HW28" s="25" t="s">
         <v>45</v>
@@ -11870,10 +12437,10 @@
       <c r="HX28" s="54"/>
       <c r="HY28" s="47"/>
       <c r="HZ28" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="IA28" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="IB28" s="26"/>
       <c r="IC28" s="24"/>
@@ -11904,7 +12471,7 @@
     </row>
     <row r="29" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -11942,10 +12509,10 @@
         <v>43</v>
       </c>
       <c r="W29" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X29" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y29" s="46"/>
       <c r="Z29" s="4" t="s">
@@ -11958,10 +12525,10 @@
         <v>44</v>
       </c>
       <c r="AC29" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD29" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE29" s="65" t="s">
         <v>45</v>
@@ -11978,7 +12545,7 @@
         <v>44</v>
       </c>
       <c r="AK29" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL29" s="5" t="s">
         <v>47</v>
@@ -11998,7 +12565,7 @@
         <v>44</v>
       </c>
       <c r="AS29" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AT29" s="5" t="s">
         <v>47</v>
@@ -12185,10 +12752,10 @@
       <c r="HH29" s="49"/>
       <c r="HI29" s="46"/>
       <c r="HJ29" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK29" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL29" s="6"/>
       <c r="HM29" s="7"/>
@@ -12235,7 +12802,7 @@
     </row>
     <row r="30" spans="1:257" s="20" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -12286,7 +12853,7 @@
       </c>
       <c r="AC30" s="24"/>
       <c r="AD30" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE30" s="65" t="s">
         <v>45</v>
@@ -12502,10 +13069,10 @@
       <c r="HH30" s="50"/>
       <c r="HI30" s="66"/>
       <c r="HJ30" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK30" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL30" s="26"/>
       <c r="HM30" s="24"/>
@@ -12552,7 +13119,7 @@
     </row>
     <row r="31" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -12572,7 +13139,7 @@
         <v>44</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="14"/>
@@ -12607,10 +13174,10 @@
       </c>
       <c r="AC31" s="7"/>
       <c r="AD31" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE31" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF31" s="49"/>
       <c r="AG31" s="46"/>
@@ -12811,10 +13378,10 @@
       <c r="HH31" s="49"/>
       <c r="HI31" s="46"/>
       <c r="HJ31" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK31" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL31" s="6"/>
       <c r="HM31" s="7"/>
@@ -12857,7 +13424,7 @@
     </row>
     <row r="32" spans="1:257" s="20" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -12895,7 +13462,7 @@
         <v>43</v>
       </c>
       <c r="W32" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X32" s="55"/>
       <c r="Y32" s="47"/>
@@ -12909,13 +13476,13 @@
         <v>44</v>
       </c>
       <c r="AC32" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD32" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE32" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="AD32" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE32" s="25" t="s">
-        <v>51</v>
       </c>
       <c r="AF32" s="55"/>
       <c r="AG32" s="47"/>
@@ -13009,7 +13576,7 @@
       <c r="CO32" s="24"/>
       <c r="CP32" s="23"/>
       <c r="CQ32" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CR32" s="55"/>
       <c r="CS32" s="47"/>
@@ -13138,10 +13705,10 @@
       <c r="HH32" s="55"/>
       <c r="HI32" s="47"/>
       <c r="HJ32" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK32" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL32" s="26"/>
       <c r="HM32" s="24"/>
@@ -13184,7 +13751,7 @@
     </row>
     <row r="33" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -13204,11 +13771,11 @@
         <v>44</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P33" s="49"/>
       <c r="Q33" s="46"/>
@@ -13228,10 +13795,10 @@
         <v>43</v>
       </c>
       <c r="W33" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y33" s="46"/>
       <c r="Z33" s="4"/>
@@ -13252,7 +13819,7 @@
         <v>44</v>
       </c>
       <c r="AK33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL33" s="5" t="s">
         <v>47</v>
@@ -13336,7 +13903,7 @@
       </c>
       <c r="CN33" s="6"/>
       <c r="CO33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CP33" s="5"/>
       <c r="CQ33" s="25" t="s">
@@ -13422,7 +13989,7 @@
         <v>44</v>
       </c>
       <c r="FI33" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="FJ33" s="5"/>
       <c r="FK33" s="14"/>
@@ -13477,10 +14044,10 @@
       <c r="HH33" s="49"/>
       <c r="HI33" s="46"/>
       <c r="HJ33" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HK33" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="HL33" s="6"/>
       <c r="HM33" s="7"/>
@@ -13523,7 +14090,7 @@
     </row>
     <row r="34" spans="1:257" s="20" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" s="74" t="s">
         <v>43</v>
@@ -13581,7 +14148,7 @@
         <v>44</v>
       </c>
       <c r="AK34" s="37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL34" s="27" t="s">
         <v>47</v>
@@ -13599,7 +14166,7 @@
         <v>44</v>
       </c>
       <c r="AS34" s="37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AT34" s="27" t="s">
         <v>47</v>
@@ -13655,7 +14222,7 @@
         <v>44</v>
       </c>
       <c r="CG34" s="37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CH34" s="27"/>
       <c r="CI34" s="25" t="s">
@@ -13838,7 +14405,7 @@
     </row>
     <row r="35" spans="1:257" s="29" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="72"/>
       <c r="C35" s="73"/>
@@ -14099,13 +14666,13 @@
     </row>
     <row r="36" spans="1:257" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -14269,19 +14836,19 @@
     </row>
     <row r="37" spans="1:257" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="15"/>
       <c r="N37" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O37" s="11"/>
       <c r="P37" s="12"/>
@@ -14439,19 +15006,19 @@
     </row>
     <row r="38" spans="1:257" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="16"/>
       <c r="N38" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
@@ -14676,403 +15243,403 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G27:G28">
-    <cfRule type="cellIs" dxfId="79" priority="3927" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="3927" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="78" priority="3924" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="3924" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="77" priority="3921" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="3921" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="76" priority="3918" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="3918" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="75" priority="2441" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="2441" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="74" priority="2438" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="2438" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="73" priority="2270" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="2270" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="72" priority="2267" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="2267" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="71" priority="671" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="671" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="70" priority="668" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="668" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="69" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="656" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="68" priority="659" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="659" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="67" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="395" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="66" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="379" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="65" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="363" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="64" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="347" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="63" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="331" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="62" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="315" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="61" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="299" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="60" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="283" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="59" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="253" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:O28 W27:W28 AE27:AE28 AM27:AM28 AU27:AU28 BC27:BC28 BK27:BK28 BS27:BS28 CA27:CA28 CI27:CI28 CQ27:CQ28 CY27:CY28 DG27:DG28 DO27:DO28 DW27:DW28 EE27:EE28 EM27:EM28 EU27:EU28 FC27:FC28 FK27:FK28 FS27:FS28 GA27:GA28 GI27:GI28 GQ27:GQ28 GY27:GY28 HG27:HG28 HO27:HO28 HW27:HW28 IE27:IE28 IM27:IM28 IU27:IU28">
-    <cfRule type="cellIs" dxfId="58" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="236" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27 Y27 AG27 AO27 AW27 BE27 BM27 BU27 CC27 CK27 CS27 DA27 DI27 DQ27 DY27 EG27 EO27 EW27 FE27 FM27 FU27 GC27 GK27 GS27 HA27 HI27 HQ27 HY27 IG27 IO27 IW27">
-    <cfRule type="cellIs" dxfId="57" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="233" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30 W30 AE30 AM30 AU30 BC30 BK30 BS30 CA30 CI30 CQ30 CY30 DG30 DO30 DW30 EE30 EM30 EU30 FC30 FK30 FS30 GA30 GI30 GQ30 GY30 HG30 HO30 HW30 IE30 IM30 IU30">
-    <cfRule type="cellIs" dxfId="56" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="230" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30 Y30 AG30 AO30 AW30 BE30 BM30 BU30 CC30 CK30 CS30 DA30 DI30 DQ30 DY30 EG30 EO30 EW30 FE30 FM30 FU30 GC30 GK30 GS30 HA30 HI30 HQ30 HY30 IG30 IO30 IW30">
-    <cfRule type="cellIs" dxfId="55" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="227" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35 W35 AE35 AM35 AU35 BC35 BK35 BS35 CA35 CI35 CQ35 CY35 DG35 DO35 DW35 EE35 EM35 EU35 FC35 FK35 FS35 GA35 GI35 GQ35 GY35 HG35 HO35 HW35 IE35 IM35 IU35">
-    <cfRule type="cellIs" dxfId="54" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="224" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35 Y35 AG35 AO35 AW35 BE35 BM35 BU35 CC35 CK35 CS35 DA35 DI35 DQ35 DY35 EG35 EO35 EW35 FE35 FM35 FU35 GC35 GK35 GS35 HA35 HI35 HQ35 HY35 IG35 IO35 IW35">
-    <cfRule type="cellIs" dxfId="53" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="221" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34 W34 AE34 AM34 BC34 BK34 BS34 CA34 CQ34 CY34 DG34 DO34 DW34 EE34 EM34 EU34 FC34 FK34 FS34 GA34 GI34 GQ34 GY34 HG34 HO34 HW34 IE34 IM34 IU34">
-    <cfRule type="cellIs" dxfId="52" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="218" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34 Y34 AG34 AO34 AW34 BE34 BM34 BU34 CC34 CK34 CS34 DA34 DI34 DQ34 DY34 EG34 EO34 EW34 FE34 FM34 FU34 GC34 GK34 GS34 HA34 HI34 HQ34 HY34 IG34 IO34 IW34">
-    <cfRule type="cellIs" dxfId="51" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="215" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5 W5 AE5 AM5 AU5 BC5 BK5 BS5 CA5 CI5 CQ5 CY5 DG5 DO5 DW5 EE5 EM5 EU5 FC5 FK5 FS5 GA5 GI5 GQ5 GY5 HG5 HO5 HW5 IE5 IM5 IU5">
-    <cfRule type="cellIs" dxfId="50" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="212" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5 Y5 AG5 AO5 AW5 BE5 BM5 BU5 CC5 CK5 CS5 DA5 DI5 DQ5 DY5 EG5 EO5 EW5 FE5 FM5 FU5 GC5 GK5 GS5 HA5 HI5 HQ5 HY5 IG5 IO5 IW5">
-    <cfRule type="cellIs" dxfId="49" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="209" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18 Y18 AG18 AO18 AW18 BE18 BM18 BU18 CC18 CK18 CS18 DA18 DI18 DQ18 DY18 EG18 EO18 EW18 FE18 FM18 FU18 GC18 GK18 GS18 HA18 HI18 HQ18 HY18 IG18 IO18 IW18">
-    <cfRule type="cellIs" dxfId="48" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="203" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18 W18 AE18 AM18 AU18 BC18 BK18 BS18 CA18 CI18 CQ18 CY18 DG18 DO18 DW18 EE18 EM18 EU18 FC18 FK18 FS18 GA18 GI18 GQ18 GY18 HG18 HO18 HW18 IE18 IM18 IU18">
-    <cfRule type="cellIs" dxfId="47" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="206" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20 W20 AE20 AM20 AU20 BC20 BK20 BS20 CA20 CI20 CQ20 CY20 DG20 DO20 DW20 EE20 EM20 EU20 FC20 FK20 FS20 GA20 GI20 GQ20 GY20 HG20 HO20 HW20 IE20 IM20 IU20">
-    <cfRule type="cellIs" dxfId="46" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="190" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22 W22 AE22 AM22 AU22 BC22 BK22 BS22 CA22 CI22 CQ22 CY22 DG22 DO22 DW22 EE22 EM22 EU22 FC22 FK22 FS22 GA22 GI22 GQ22 GY22 HG22 HO22 HW22 IE22 IM22 IU22">
-    <cfRule type="cellIs" dxfId="45" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="183" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16 W16 AE16 AM16 AU16 BC16 BK16 BS16 CA16 CI16 CQ16 CY16 DG16 DO16 DW16 EE16 EM16 EU16 FC16 FK16 FS16 GA16 GI16 GQ16 GY16 HG16 HO16 HW16 IE16 IM16 IU16">
-    <cfRule type="cellIs" dxfId="44" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="176" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14 W14 AE14 AM14 AU14 BC14 BK14 BS14 CA14 CI14 CQ14 CY14 DG14 DO14 DW14 EE14 EM14 EU14 FC14 FK14 FS14 GA14 GI14 GQ14 GY14 HG14 HO14 HW14 IE14 IM14 IU14">
-    <cfRule type="cellIs" dxfId="43" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="169" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12 W12 AE12 AM12 AU12 BC12 BK12 BS12 CA12 CI12 CQ12 CY12 DG12 DO12 DW12 EE12 EM12 EU12 FC12 FK12 FS12 GA12 GI12 GQ12 GY12 HG12 HO12 HW12 IE12 IM12 IU12">
-    <cfRule type="cellIs" dxfId="42" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="162" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10 W10 AE10 AM10 AU10 BC10 BK10 BS10 CA10 CI10 CQ10 CY10 DG10 DO10 DW10 EE10 EM10 EU10 FC10 FK10 FS10 GA10 GI10 GQ10 GY10 HG10 HO10 HW10 IE10 IM10 IU10">
-    <cfRule type="cellIs" dxfId="41" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="155" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8 W8 AE8 AM8 AU8 BC8 BK8 BS8 CA8 CI8 CQ8 CY8 DG8 DO8 DW8 EE8 EM8 EU8 FC8 FK8 FS8 GA8 GI8 GQ8 GY8 HG8 HO8 HW8 IE8 IM8 IU8">
-    <cfRule type="cellIs" dxfId="40" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="148" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6 W6 AE6 AM6 BC6 BK6 BS6 CA6 CI6 CQ6 CY6 DG6 DO6 DW6 EE6 EM6 EU6 FC6 FK6 FS6 GA6 GI6 GQ6 GY6 HG6 HO6 HW6 IE6 IM6 IU6">
-    <cfRule type="cellIs" dxfId="39" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="141" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24 Y24 AG24 AO24 AW24 BE24 BM24 BU24 CC24 CK24 CS24 DA24 DI24 DQ24 DY24 EG24 EO24 EW24 FE24 FM24 FU24 GC24 GK24 GS24 HA24 HI24 HQ24 HY24 IG24 IO24 IW24">
-    <cfRule type="cellIs" dxfId="38" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="117" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W33">
-    <cfRule type="cellIs" dxfId="37" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="114" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI34">
-    <cfRule type="cellIs" dxfId="36" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="111" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ33">
-    <cfRule type="cellIs" dxfId="35" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="108" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="cellIs" dxfId="34" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="105" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="33" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="102" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W19">
-    <cfRule type="cellIs" dxfId="32" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="99" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7">
-    <cfRule type="cellIs" dxfId="31" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="96" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE19">
-    <cfRule type="cellIs" dxfId="30" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="90" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE13">
-    <cfRule type="cellIs" dxfId="29" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="87" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE31">
-    <cfRule type="cellIs" dxfId="28" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="84" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU29">
-    <cfRule type="cellIs" dxfId="27" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="81" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17">
-    <cfRule type="cellIs" dxfId="26" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="78" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE32">
-    <cfRule type="cellIs" dxfId="25" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="75" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE21">
-    <cfRule type="cellIs" dxfId="24" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="72" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE23">
-    <cfRule type="cellIs" dxfId="23" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="69" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM29">
-    <cfRule type="cellIs" dxfId="22" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="66" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21">
-    <cfRule type="cellIs" dxfId="21" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="63" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE29">
-    <cfRule type="cellIs" dxfId="20" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="60" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU32">
-    <cfRule type="cellIs" dxfId="19" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="57" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM32">
-    <cfRule type="cellIs" dxfId="18" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="54" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O33">
-    <cfRule type="cellIs" dxfId="17" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="51" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ32">
-    <cfRule type="cellIs" dxfId="16" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="48" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI13">
-    <cfRule type="cellIs" dxfId="15" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="45" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI21">
-    <cfRule type="cellIs" dxfId="14" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="42" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU33">
-    <cfRule type="cellIs" dxfId="13" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29">
-    <cfRule type="cellIs" dxfId="12" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="36" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" dxfId="11" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="33" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31">
-    <cfRule type="cellIs" dxfId="10" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="30" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="9" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="27" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34">
-    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="24" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM33">
-    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="21" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU15">
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="18" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU6">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="15" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19">
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="12" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="9" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
       <formula>$N$37</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>F1 = "test"</formula>
+  <conditionalFormatting sqref="B5:IW35">
+    <cfRule type="expression" dxfId="80" priority="1">
+      <formula>B5 = "test"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
